--- a/src/main/java/com/receipting/testdata/testdata.xlsx
+++ b/src/main/java/com/receipting/testdata/testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5025" windowWidth="16950" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" windowHeight="5025" windowWidth="16950" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Receipting Test Data" r:id="rId1" sheetId="1"/>
-    <sheet name="Test Data" r:id="rId2" sheetId="2"/>
+    <sheet name="Test Data" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
   <si>
     <t>RECEIPTIN TEST DATA PREP- AUTOMATION TEST DATA FILE</t>
   </si>
@@ -155,6 +155,93 @@
   </si>
   <si>
     <t>190211-000091</t>
+  </si>
+  <si>
+    <t>190212-000000</t>
+  </si>
+  <si>
+    <t>190212-000001</t>
+  </si>
+  <si>
+    <t>190212-000002</t>
+  </si>
+  <si>
+    <t>190212-000003</t>
+  </si>
+  <si>
+    <t>190212-000004</t>
+  </si>
+  <si>
+    <t>190212-000005</t>
+  </si>
+  <si>
+    <t>190212-000006</t>
+  </si>
+  <si>
+    <t>190212-000007</t>
+  </si>
+  <si>
+    <t>190212-000008</t>
+  </si>
+  <si>
+    <t>190212-000009</t>
+  </si>
+  <si>
+    <t>190212-000010</t>
+  </si>
+  <si>
+    <t>190212-000011</t>
+  </si>
+  <si>
+    <t>190212-000012</t>
+  </si>
+  <si>
+    <t>190212-000013</t>
+  </si>
+  <si>
+    <t>190212-000014</t>
+  </si>
+  <si>
+    <t>190212-000015</t>
+  </si>
+  <si>
+    <t>190212-000016</t>
+  </si>
+  <si>
+    <t>190212-000017</t>
+  </si>
+  <si>
+    <t>190212-000018</t>
+  </si>
+  <si>
+    <t>190212-000019</t>
+  </si>
+  <si>
+    <t>190212-000020</t>
+  </si>
+  <si>
+    <t>190212-000021</t>
+  </si>
+  <si>
+    <t>190212-000022</t>
+  </si>
+  <si>
+    <t>190212-000027</t>
+  </si>
+  <si>
+    <t>190212-000031</t>
+  </si>
+  <si>
+    <t>190212-000034</t>
+  </si>
+  <si>
+    <t>190212-000037</t>
+  </si>
+  <si>
+    <t>190212-000041</t>
+  </si>
+  <si>
+    <t>190212-000042</t>
   </si>
 </sst>
 </file>
@@ -178,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +285,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -219,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -227,6 +344,9 @@
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -724,139 +844,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="44.20703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.31640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.71484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.83203125" collapsed="false"/>
+    <col min="3" max="3" width="20.31640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
